--- a/server/upload/output.xlsx
+++ b/server/upload/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,7 @@
     <col min="6" max="6" width="10.00390625" customWidth="1"/>
     <col min="7" max="7" width="10.00390625" customWidth="1"/>
     <col min="8" max="8" width="10.00390625" customWidth="1"/>
+    <col min="9" max="9" width="10.00390625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -403,10 +404,10 @@
       <c r="D1" t="str">
         <v>课堂考勤</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>考勤总分</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>提问次数</v>
       </c>
     </row>
@@ -420,6 +421,9 @@
       <c r="F2" t="str">
         <v>第3次考勤</v>
       </c>
+      <c r="G2" t="str">
+        <v>第4次考勤</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -441,9 +445,12 @@
         <v>2</v>
       </c>
       <c r="G3" t="str">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="str">
+        <v>5.5</v>
+      </c>
+      <c r="I3" t="str">
         <v>1</v>
       </c>
     </row>
@@ -467,9 +474,12 @@
         <v>2</v>
       </c>
       <c r="G4" t="str">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="H4" t="str">
+        <v>106</v>
+      </c>
+      <c r="I4" t="str">
         <v>1</v>
       </c>
     </row>
@@ -493,9 +503,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="str">
-        <v>3.9</v>
+        <v>-0.1</v>
       </c>
       <c r="H5" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="I5" t="str">
         <v>0</v>
       </c>
     </row>
@@ -519,9 +532,12 @@
         <v>-0.5</v>
       </c>
       <c r="G6" t="str">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H6" t="str">
+        <v>5.5</v>
+      </c>
+      <c r="I6" t="str">
         <v>0</v>
       </c>
     </row>
@@ -545,9 +561,12 @@
         <v>2</v>
       </c>
       <c r="G7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="str">
+        <v>3</v>
+      </c>
+      <c r="I7" t="str">
         <v>0</v>
       </c>
     </row>
@@ -556,12 +575,12 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>